--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TORRES_SANT\Documents\Bentley\Senior Year\Learning to Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TORRES_SANT\Documents\Programming\BSLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,10 +186,10 @@
     <t>Torres, Santiago</t>
   </si>
   <si>
-    <t>Calvi, Erica</t>
+    <t>miss</t>
   </si>
   <si>
-    <t>miss</t>
+    <t>Calvi, Erica</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -372,37 +372,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -687,9 +656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A324" sqref="A321:A324"/>
+      <selection pane="topRight" activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7410,7 +7379,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E319" s="3"/>
       <c r="F319" s="4"/>
@@ -7424,7 +7393,7 @@
     </row>
     <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>4</v>
@@ -7433,7 +7402,7 @@
         <v>11</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E320" s="3"/>
       <c r="F320" s="4"/>
@@ -7447,7 +7416,7 @@
     </row>
     <row r="321" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>10</v>
@@ -7456,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E321" s="3"/>
       <c r="F321" s="4"/>
@@ -7479,7 +7448,7 @@
         <v>11</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E322" s="3"/>
       <c r="F322" s="4"/>
@@ -7502,7 +7471,7 @@
         <v>11</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E323" s="3"/>
       <c r="F323" s="4"/>
@@ -7525,7 +7494,7 @@
         <v>11</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
@@ -7548,7 +7517,7 @@
         <v>15</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
@@ -7571,7 +7540,7 @@
         <v>15</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E326" s="3"/>
       <c r="F326" s="4"/>
@@ -7594,7 +7563,7 @@
         <v>16</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="4"/>
@@ -7617,7 +7586,7 @@
         <v>16</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E328" s="3"/>
       <c r="F328" s="4"/>
@@ -7640,7 +7609,7 @@
         <v>17</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="4"/>
@@ -7663,7 +7632,7 @@
         <v>17</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="4"/>
@@ -7686,7 +7655,7 @@
         <v>18</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
@@ -7709,7 +7678,7 @@
         <v>18</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
@@ -7732,7 +7701,7 @@
         <v>18</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
@@ -7755,7 +7724,7 @@
         <v>18</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -7778,7 +7747,7 @@
         <v>18</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
@@ -7801,7 +7770,7 @@
         <v>18</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
@@ -7824,7 +7793,7 @@
         <v>19</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
@@ -7847,7 +7816,7 @@
         <v>19</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
@@ -7870,7 +7839,7 @@
         <v>19</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
@@ -7893,7 +7862,7 @@
         <v>19</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
@@ -7916,7 +7885,7 @@
         <v>20</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
@@ -7939,7 +7908,7 @@
         <v>21</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -7962,7 +7931,7 @@
         <v>24</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -7985,7 +7954,7 @@
         <v>28</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
@@ -8008,7 +7977,7 @@
         <v>28</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
@@ -8031,7 +8000,7 @@
         <v>28</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
@@ -8054,7 +8023,7 @@
         <v>28</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
@@ -8077,7 +8046,7 @@
         <v>28</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
@@ -8100,7 +8069,7 @@
         <v>29</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
@@ -8123,7 +8092,7 @@
         <v>29</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
@@ -8146,7 +8115,7 @@
         <v>29</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
@@ -8169,7 +8138,7 @@
         <v>29</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
@@ -8192,7 +8161,7 @@
         <v>29</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
@@ -8215,7 +8184,7 @@
         <v>30</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
@@ -8238,7 +8207,7 @@
         <v>31</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
@@ -8261,7 +8230,7 @@
         <v>31</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
@@ -8284,7 +8253,7 @@
         <v>31</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
@@ -8307,7 +8276,7 @@
         <v>52</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
@@ -8330,7 +8299,7 @@
         <v>32</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
@@ -8353,7 +8322,7 @@
         <v>32</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
@@ -8376,7 +8345,7 @@
         <v>32</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
@@ -8399,7 +8368,7 @@
         <v>35</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
@@ -8422,7 +8391,7 @@
         <v>35</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
@@ -8445,7 +8414,7 @@
         <v>36</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
@@ -8468,7 +8437,7 @@
         <v>36</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
@@ -8491,7 +8460,7 @@
         <v>36</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
@@ -8514,7 +8483,7 @@
         <v>36</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -8537,7 +8506,7 @@
         <v>38</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
@@ -8560,7 +8529,7 @@
         <v>38</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E369" s="3"/>
       <c r="F369" s="4"/>
@@ -8583,7 +8552,7 @@
         <v>39</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -8606,7 +8575,7 @@
         <v>39</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -8629,7 +8598,7 @@
         <v>40</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E372" s="3"/>
       <c r="F372" s="4"/>
@@ -8652,7 +8621,7 @@
         <v>40</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E373" s="3"/>
       <c r="F373" s="4"/>
@@ -8675,7 +8644,7 @@
         <v>42</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E374" s="3"/>
       <c r="F374" s="4"/>
@@ -8698,7 +8667,7 @@
         <v>42</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E375" s="3"/>
       <c r="F375" s="4"/>
@@ -8721,7 +8690,7 @@
         <v>42</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
@@ -8744,7 +8713,7 @@
         <v>42</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
@@ -8767,7 +8736,7 @@
         <v>42</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
@@ -8790,7 +8759,7 @@
         <v>43</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -8813,7 +8782,7 @@
         <v>43</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
@@ -8836,7 +8805,7 @@
         <v>43</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
@@ -8859,7 +8828,7 @@
         <v>43</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
@@ -8882,7 +8851,7 @@
         <v>43</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
@@ -8905,7 +8874,7 @@
         <v>45</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
@@ -8928,7 +8897,7 @@
         <v>45</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
@@ -8951,7 +8920,7 @@
         <v>46</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
@@ -8974,7 +8943,7 @@
         <v>47</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
@@ -8997,7 +8966,7 @@
         <v>49</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
@@ -9020,7 +8989,7 @@
         <v>50</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
@@ -10868,12 +10837,12 @@
   </sheetData>
   <autoFilter ref="A1:D389"/>
   <conditionalFormatting sqref="D2:D389">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D389">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
